--- a/Assets/StreamingAssets/monsters.xlsx
+++ b/Assets/StreamingAssets/monsters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,6 +30,466 @@
   <si>
     <t>掉落金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙蛙种子</t>
+  </si>
+  <si>
+    <t>妙蛙草</t>
+  </si>
+  <si>
+    <t>妙蛙花</t>
+  </si>
+  <si>
+    <t>小火龙</t>
+  </si>
+  <si>
+    <t>火恐龙</t>
+  </si>
+  <si>
+    <t>喷火龙</t>
+  </si>
+  <si>
+    <t>杰尼龟</t>
+  </si>
+  <si>
+    <t>卡咪龟</t>
+  </si>
+  <si>
+    <t>水箭龟</t>
+  </si>
+  <si>
+    <t>绿毛虫</t>
+  </si>
+  <si>
+    <t>铁甲蛹</t>
+  </si>
+  <si>
+    <t>巴大蝴</t>
+  </si>
+  <si>
+    <t>独角虫</t>
+  </si>
+  <si>
+    <t>铁壳昆</t>
+  </si>
+  <si>
+    <t>大针蜂</t>
+  </si>
+  <si>
+    <t>波波</t>
+  </si>
+  <si>
+    <t>比比鸟</t>
+  </si>
+  <si>
+    <t>比雕</t>
+  </si>
+  <si>
+    <t>小拉达</t>
+  </si>
+  <si>
+    <t>拉达</t>
+  </si>
+  <si>
+    <t>烈雀</t>
+  </si>
+  <si>
+    <t>大嘴雀</t>
+  </si>
+  <si>
+    <t>阿柏蛇</t>
+  </si>
+  <si>
+    <t>阿柏怪</t>
+  </si>
+  <si>
+    <t>皮卡丘</t>
+  </si>
+  <si>
+    <t>雷丘</t>
+  </si>
+  <si>
+    <t>穿山鼠</t>
+  </si>
+  <si>
+    <t>穿山王</t>
+  </si>
+  <si>
+    <t>尼多兰</t>
+  </si>
+  <si>
+    <t>尼多娜</t>
+  </si>
+  <si>
+    <t>尼多后</t>
+  </si>
+  <si>
+    <t>尼多朗</t>
+  </si>
+  <si>
+    <t>尼多力诺</t>
+  </si>
+  <si>
+    <t>尼多王</t>
+  </si>
+  <si>
+    <t>皮皮</t>
+  </si>
+  <si>
+    <t>皮可西</t>
+  </si>
+  <si>
+    <t>六尾</t>
+  </si>
+  <si>
+    <t>九尾</t>
+  </si>
+  <si>
+    <t>胖丁</t>
+  </si>
+  <si>
+    <t>胖可丁</t>
+  </si>
+  <si>
+    <t>超音蝠</t>
+  </si>
+  <si>
+    <t>大嘴蝠</t>
+  </si>
+  <si>
+    <t>走路草</t>
+  </si>
+  <si>
+    <t>臭臭花</t>
+  </si>
+  <si>
+    <t>霸王花</t>
+  </si>
+  <si>
+    <t>派拉斯</t>
+  </si>
+  <si>
+    <t>派拉斯特</t>
+  </si>
+  <si>
+    <t>毛球</t>
+  </si>
+  <si>
+    <t>末入蛾</t>
+  </si>
+  <si>
+    <t>地鼠</t>
+  </si>
+  <si>
+    <t>三地鼠</t>
+  </si>
+  <si>
+    <t>喵喵</t>
+  </si>
+  <si>
+    <t>猫老大</t>
+  </si>
+  <si>
+    <t>可达鸭</t>
+  </si>
+  <si>
+    <t>哥达鸭</t>
+  </si>
+  <si>
+    <t>猴怪</t>
+  </si>
+  <si>
+    <t>火爆猴</t>
+  </si>
+  <si>
+    <t>卡蒂狗</t>
+  </si>
+  <si>
+    <t>风速狗</t>
+  </si>
+  <si>
+    <t>蚊香蝌蚪</t>
+  </si>
+  <si>
+    <t>蚊香蛙</t>
+  </si>
+  <si>
+    <t>快泳蛙</t>
+  </si>
+  <si>
+    <t>凯西</t>
+  </si>
+  <si>
+    <t>勇吉拉</t>
+  </si>
+  <si>
+    <t>胡地</t>
+  </si>
+  <si>
+    <t>腕力</t>
+  </si>
+  <si>
+    <t>豪力</t>
+  </si>
+  <si>
+    <t>怪力</t>
+  </si>
+  <si>
+    <t>喇叭芽</t>
+  </si>
+  <si>
+    <t>口呆花</t>
+  </si>
+  <si>
+    <t>大食花</t>
+  </si>
+  <si>
+    <t>玛瑙水母</t>
+  </si>
+  <si>
+    <t>毒刺水母</t>
+  </si>
+  <si>
+    <t>小拳石</t>
+  </si>
+  <si>
+    <t>隆隆石</t>
+  </si>
+  <si>
+    <t>隆隆岩</t>
+  </si>
+  <si>
+    <t>小火马</t>
+  </si>
+  <si>
+    <t>烈焰马</t>
+  </si>
+  <si>
+    <t>呆呆兽</t>
+  </si>
+  <si>
+    <t>呆河马</t>
+  </si>
+  <si>
+    <t>小磁怪</t>
+  </si>
+  <si>
+    <t>三合一磁怪</t>
+  </si>
+  <si>
+    <t>大葱鸭</t>
+  </si>
+  <si>
+    <t>嘟嘟</t>
+  </si>
+  <si>
+    <t>嘟嘟利</t>
+  </si>
+  <si>
+    <t>小海狮</t>
+  </si>
+  <si>
+    <t>白海狮</t>
+  </si>
+  <si>
+    <t>臭泥</t>
+  </si>
+  <si>
+    <t>臭臭泥</t>
+  </si>
+  <si>
+    <t>大舌贝</t>
+  </si>
+  <si>
+    <t>铁甲贝</t>
+  </si>
+  <si>
+    <t>鬼斯</t>
+  </si>
+  <si>
+    <t>鬼斯通</t>
+  </si>
+  <si>
+    <t>耿鬼</t>
+  </si>
+  <si>
+    <t>大岩蛇</t>
+  </si>
+  <si>
+    <t>素利普</t>
+  </si>
+  <si>
+    <t>素利拍</t>
+  </si>
+  <si>
+    <t>大钳蟹</t>
+  </si>
+  <si>
+    <t>巨钳蟹</t>
+  </si>
+  <si>
+    <t>雷电球</t>
+  </si>
+  <si>
+    <t>顽皮弹</t>
+  </si>
+  <si>
+    <t>蛋蛋</t>
+  </si>
+  <si>
+    <t>椰蛋树</t>
+  </si>
+  <si>
+    <t>可拉可拉</t>
+  </si>
+  <si>
+    <t>嘎拉嘎拉</t>
+  </si>
+  <si>
+    <t>沙瓦郎</t>
+  </si>
+  <si>
+    <t>艾比郎</t>
+  </si>
+  <si>
+    <t>大舌头</t>
+  </si>
+  <si>
+    <t>瓦斯弹</t>
+  </si>
+  <si>
+    <t>双弹瓦斯</t>
+  </si>
+  <si>
+    <t>铁甲犀牛</t>
+  </si>
+  <si>
+    <t>铁甲暴龙</t>
+  </si>
+  <si>
+    <t>吉利蛋</t>
+  </si>
+  <si>
+    <t>蔓藤怪</t>
+  </si>
+  <si>
+    <t>袋龙</t>
+  </si>
+  <si>
+    <t>墨海马</t>
+  </si>
+  <si>
+    <t>海刺龙</t>
+  </si>
+  <si>
+    <t>角金鱼</t>
+  </si>
+  <si>
+    <t>金鱼王</t>
+  </si>
+  <si>
+    <t>海星星</t>
+  </si>
+  <si>
+    <t>宝石海星</t>
+  </si>
+  <si>
+    <t>吸盘魔偶</t>
+  </si>
+  <si>
+    <t>飞天螳螂</t>
+  </si>
+  <si>
+    <t>迷唇姐</t>
+  </si>
+  <si>
+    <t>电击兽</t>
+  </si>
+  <si>
+    <t>鸭嘴火龙</t>
+  </si>
+  <si>
+    <t>大甲</t>
+  </si>
+  <si>
+    <t>肯泰罗</t>
+  </si>
+  <si>
+    <t>鲤鱼王</t>
+  </si>
+  <si>
+    <t>暴鲤龙</t>
+  </si>
+  <si>
+    <t>乘龙</t>
+  </si>
+  <si>
+    <t>百变怪</t>
+  </si>
+  <si>
+    <t>伊布</t>
+  </si>
+  <si>
+    <t>水精灵</t>
+  </si>
+  <si>
+    <t>雷精灵</t>
+  </si>
+  <si>
+    <t>火精灵</t>
+  </si>
+  <si>
+    <t>3D龙</t>
+  </si>
+  <si>
+    <t>菊石兽</t>
+  </si>
+  <si>
+    <t>多刺菊石兽</t>
+  </si>
+  <si>
+    <t>化石盔</t>
+  </si>
+  <si>
+    <t>镰刀盔</t>
+  </si>
+  <si>
+    <t>化石翼龙</t>
+  </si>
+  <si>
+    <t>卡比兽</t>
+  </si>
+  <si>
+    <t>急冻鸟</t>
+  </si>
+  <si>
+    <t>闪电鸟</t>
+  </si>
+  <si>
+    <t>火焰鸟</t>
+  </si>
+  <si>
+    <t>迷你龙</t>
+  </si>
+  <si>
+    <t>哈克龙</t>
+  </si>
+  <si>
+    <t>快龙</t>
+  </si>
+  <si>
+    <t>超梦</t>
+  </si>
+  <si>
+    <t>梦幻</t>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(hp/(1-defence/100)+5*attack)/10</t>
   </si>
 </sst>
 </file>
@@ -382,2289 +842,2748 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="H151" sqref="H151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>20</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <f>(A2/(1-C2/100)+5*B2)/10</f>
+      <c r="E2" s="1">
+        <f>(B2/(1-D2/100)+5*C2)/10</f>
         <v>6.5408163265306118</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>400</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>60</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D66" si="0">(A3/(1-C3/100)+5*B3)/10</f>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E66" si="0">(B3/(1-D3/100)+5*C3)/10</f>
         <v>74.444444444444443</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>8000</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>700</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>75</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>3550</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>350</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>70</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>70.353535353535364</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>7000</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>1500</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>70</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>3083.333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>21</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>6.1649484536082477</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>450</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>50</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>20</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>9000</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>700</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>85</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>6349.9999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>3.5101010101010104</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
         <v>20</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>30</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>7.8571428571428568</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>300</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>500</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>20</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>287.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>8.5101010101010104</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
         <v>40</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>50</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
         <v>300</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>700</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>35</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>396.15384615384613</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>10</v>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>6.0309278350515463</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
         <v>400</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>100</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>92.10526315789474</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
         <v>5000</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>900</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>50</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
         <v>10</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>5</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>3.5101010101010104</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
         <v>1000</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>100</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>40</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>216.66666666666669</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
         <v>30</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>8.0612244897959187</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
         <v>4000</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>1000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>60</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
         <v>200</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>50</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>30</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <f t="shared" si="0"/>
         <v>53.571428571428577</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
         <v>4000</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>1300</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>65</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <f t="shared" si="0"/>
         <v>1792.8571428571427</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
         <v>500</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>100</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <f t="shared" si="0"/>
         <v>105.55555555555557</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
         <v>2000</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>1000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>20</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
         <v>100</v>
-      </c>
-      <c r="B28">
-        <v>60</v>
       </c>
       <c r="C28">
         <v>60</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
+        <v>60</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
         <v>2000</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>200</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>85</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <f t="shared" si="0"/>
         <v>1433.3333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
         <v>150</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>40</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>10</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
         <v>800</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>100</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>15</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <f t="shared" si="0"/>
         <v>144.11764705882354</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
         <v>4000</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>400</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>25</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <f t="shared" si="0"/>
         <v>733.33333333333326</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
         <v>160</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>35</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>15</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <f t="shared" si="0"/>
         <v>36.32352941176471</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
         <v>850</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>80</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>20</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <f t="shared" si="0"/>
         <v>146.25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
         <v>5000</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>350</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>35</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <f t="shared" si="0"/>
         <v>944.23076923076917</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
         <v>300</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>20</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>40</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
         <v>4000</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>100</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>70</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
         <f t="shared" si="0"/>
         <v>1383.3333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
         <v>500</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>70</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>15</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <f t="shared" si="0"/>
         <v>93.82352941176471</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
         <v>5000</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>800</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>35</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <f t="shared" si="0"/>
         <v>1169.2307692307691</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
         <v>300</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>30</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>35</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <f t="shared" si="0"/>
         <v>61.153846153846153</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
         <v>3000</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>200</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>70</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <f t="shared" si="0"/>
         <v>1099.9999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
         <v>150</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>80</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>25</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
         <v>3000</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>800</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>60</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
         <f t="shared" si="0"/>
         <v>1150</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>10</v>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>46</v>
       </c>
       <c r="B44">
         <v>10</v>
       </c>
       <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
         <v>2</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <f t="shared" si="0"/>
         <v>6.0204081632653059</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
         <v>300</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>100</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>10</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
         <v>6000</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>800</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>70</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <f t="shared" si="0"/>
         <v>2399.9999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
         <v>100</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>30</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>40</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <f t="shared" si="0"/>
         <v>31.666666666666668</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
         <v>3500</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>150</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>70</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="1">
         <f t="shared" si="0"/>
         <v>1241.6666666666665</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
         <v>200</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>70</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>20</v>
       </c>
-      <c r="D49" s="1">
+      <c r="E49" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
         <v>2000</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>200</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>40</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="1">
         <f t="shared" si="0"/>
         <v>433.33333333333337</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
         <v>100</v>
-      </c>
-      <c r="B51">
-        <v>30</v>
       </c>
       <c r="C51">
         <v>30</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
+        <v>30</v>
+      </c>
+      <c r="E51" s="1">
         <f t="shared" si="0"/>
         <v>29.285714285714288</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
         <v>4000</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>900</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>70</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="1">
         <f t="shared" si="0"/>
         <v>1783.3333333333333</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
         <v>200</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>80</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>10</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="1">
         <f t="shared" si="0"/>
         <v>62.222222222222214</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
         <v>5000</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>200</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>30</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="1">
         <f t="shared" si="0"/>
         <v>814.28571428571433</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
         <v>350</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>50</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>80</v>
       </c>
-      <c r="D55" s="1">
+      <c r="E55" s="1">
         <f t="shared" si="0"/>
         <v>200.00000000000006</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
         <v>4000</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>250</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>85</v>
       </c>
-      <c r="D56" s="1">
+      <c r="E56" s="1">
         <f t="shared" si="0"/>
         <v>2791.6666666666665</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
         <v>300</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>150</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>5</v>
       </c>
-      <c r="D57" s="1">
+      <c r="E57" s="1">
         <f t="shared" si="0"/>
         <v>106.57894736842104</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
         <v>3000</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>1000</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>15</v>
       </c>
-      <c r="D58" s="1">
+      <c r="E58" s="1">
         <f t="shared" si="0"/>
         <v>852.94117647058829</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
         <v>300</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>100</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>10</v>
       </c>
-      <c r="D59" s="1">
+      <c r="E59" s="1">
         <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
         <v>4000</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>1000</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>20</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E60" s="1">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
         <v>10</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>4</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>1</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <f t="shared" si="0"/>
         <v>3.0101010101010099</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62">
         <v>350</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>50</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>10</v>
       </c>
-      <c r="D62" s="1">
+      <c r="E62" s="1">
         <f t="shared" si="0"/>
         <v>63.888888888888893</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
         <v>6000</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>1500</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>50</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E63" s="1">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64">
         <v>100</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>15</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>10</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E64" s="1">
         <f t="shared" si="0"/>
         <v>18.611111111111111</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65">
         <v>2000</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>100</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>25</v>
       </c>
-      <c r="D65" s="1">
+      <c r="E65" s="1">
         <f t="shared" si="0"/>
         <v>316.66666666666663</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66">
         <v>10000</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>800</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>50</v>
       </c>
-      <c r="D66" s="1">
+      <c r="E66" s="1">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
         <v>150</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>30</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>10</v>
       </c>
-      <c r="D67" s="1">
-        <f t="shared" ref="D67:D130" si="1">(A67/(1-C67/100)+5*B67)/10</f>
+      <c r="E67" s="1">
+        <f t="shared" ref="E67:E130" si="1">(B67/(1-D67/100)+5*C67)/10</f>
         <v>31.666666666666664</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
         <v>3000</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>200</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>15</v>
       </c>
-      <c r="D68" s="1">
+      <c r="E68" s="1">
         <f t="shared" si="1"/>
         <v>452.94117647058829</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69">
         <v>7000</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>1500</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>30</v>
       </c>
-      <c r="D69" s="1">
+      <c r="E69" s="1">
         <f t="shared" si="1"/>
         <v>1750</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70">
         <v>70</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>10</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>3</v>
       </c>
-      <c r="D70" s="1">
+      <c r="E70" s="1">
         <f t="shared" si="1"/>
         <v>12.216494845360824</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71">
         <v>700</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>50</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>5</v>
       </c>
-      <c r="D71" s="1">
+      <c r="E71" s="1">
         <f t="shared" si="1"/>
         <v>98.684210526315795</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72">
         <v>7000</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>800</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>15</v>
       </c>
-      <c r="D72" s="1">
+      <c r="E72" s="1">
         <f t="shared" si="1"/>
         <v>1223.5294117647059</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
         <v>300</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>100</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>20</v>
       </c>
-      <c r="D73" s="1">
+      <c r="E73" s="1">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74">
         <v>5000</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>1000</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>40</v>
       </c>
-      <c r="D74" s="1">
+      <c r="E74" s="1">
         <f t="shared" si="1"/>
         <v>1333.3333333333335</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75">
         <v>100</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>35</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>15</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="1">
         <f t="shared" si="1"/>
         <v>29.264705882352938</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76">
         <v>2500</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>300</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>40</v>
       </c>
-      <c r="D76" s="1">
+      <c r="E76" s="1">
         <f t="shared" si="1"/>
         <v>566.66666666666674</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77">
         <v>6000</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>1500</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>80</v>
       </c>
-      <c r="D77" s="1">
+      <c r="E77" s="1">
         <f t="shared" si="1"/>
         <v>3750.0000000000009</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78">
         <v>300</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>100</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>10</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="1">
         <f t="shared" si="1"/>
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
         <v>4000</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>1000</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>20</v>
       </c>
-      <c r="D79" s="1">
+      <c r="E79" s="1">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80">
         <v>350</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>70</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>40</v>
       </c>
-      <c r="D80" s="1">
+      <c r="E80" s="1">
         <f t="shared" si="1"/>
         <v>93.333333333333343</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81">
         <v>5000</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>300</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>80</v>
       </c>
-      <c r="D81" s="1">
+      <c r="E81" s="1">
         <f t="shared" si="1"/>
         <v>2650.0000000000009</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
         <v>100</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>30</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>20</v>
       </c>
-      <c r="D82" s="1">
+      <c r="E82" s="1">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83">
         <v>5000</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>500</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>50</v>
       </c>
-      <c r="D83" s="1">
+      <c r="E83" s="1">
         <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84">
         <v>300</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>50</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>10</v>
       </c>
-      <c r="D84" s="1">
+      <c r="E84" s="1">
         <f t="shared" si="1"/>
         <v>58.333333333333329</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85">
         <v>200</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>40</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>5</v>
       </c>
-      <c r="D85" s="1">
+      <c r="E85" s="1">
         <f t="shared" si="1"/>
         <v>41.05263157894737</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86">
         <v>3000</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>800</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>30</v>
       </c>
-      <c r="D86" s="1">
+      <c r="E86" s="1">
         <f t="shared" si="1"/>
         <v>828.57142857142867</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87">
         <v>500</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>100</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>50</v>
       </c>
-      <c r="D87" s="1">
+      <c r="E87" s="1">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88">
         <v>4000</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>500</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>60</v>
       </c>
-      <c r="D88" s="1">
+      <c r="E88" s="1">
         <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89">
         <v>300</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>80</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>50</v>
       </c>
-      <c r="D89" s="1">
+      <c r="E89" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90">
         <v>4000</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>500</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>60</v>
       </c>
-      <c r="D90" s="1">
+      <c r="E90" s="1">
         <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91">
         <v>150</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>20</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>30</v>
       </c>
-      <c r="D91" s="1">
+      <c r="E91" s="1">
         <f t="shared" si="1"/>
         <v>31.428571428571434</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92">
         <v>3000</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>250</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>50</v>
       </c>
-      <c r="D92" s="1">
+      <c r="E92" s="1">
         <f t="shared" si="1"/>
         <v>725</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93">
         <v>100</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>25</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>50</v>
       </c>
-      <c r="D93" s="1">
+      <c r="E93" s="1">
         <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94">
         <v>1000</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>200</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>60</v>
       </c>
-      <c r="D94" s="1">
+      <c r="E94" s="1">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95">
         <v>10000</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>1000</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>70</v>
       </c>
-      <c r="D95" s="1">
+      <c r="E95" s="1">
         <f t="shared" si="1"/>
         <v>3833.333333333333</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96">
         <v>1000</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>100</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>60</v>
       </c>
-      <c r="D96" s="1">
+      <c r="E96" s="1">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97">
         <v>100</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>25</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>40</v>
       </c>
-      <c r="D97" s="1">
+      <c r="E97" s="1">
         <f t="shared" si="1"/>
         <v>29.166666666666668</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98">
         <v>3000</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>200</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>55</v>
       </c>
-      <c r="D98" s="1">
+      <c r="E98" s="1">
         <f t="shared" si="1"/>
         <v>766.66666666666674</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99">
         <v>100</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>30</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>20</v>
       </c>
-      <c r="D99" s="1">
+      <c r="E99" s="1">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100">
         <v>4000</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>500</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>40</v>
       </c>
-      <c r="D100" s="1">
+      <c r="E100" s="1">
         <f t="shared" si="1"/>
         <v>916.66666666666674</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101">
         <v>300</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>30</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>35</v>
       </c>
-      <c r="D101" s="1">
+      <c r="E101" s="1">
         <f t="shared" si="1"/>
         <v>61.153846153846153</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102">
         <v>3000</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>300</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>50</v>
       </c>
-      <c r="D102" s="1">
+      <c r="E102" s="1">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103">
         <v>300</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>50</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>15</v>
       </c>
-      <c r="D103" s="1">
+      <c r="E103" s="1">
         <f t="shared" si="1"/>
         <v>60.294117647058826</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104">
         <v>3000</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>350</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>60</v>
       </c>
-      <c r="D104" s="1">
+      <c r="E104" s="1">
         <f t="shared" si="1"/>
         <v>925</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105">
         <v>200</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>100</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>15</v>
       </c>
-      <c r="D105" s="1">
+      <c r="E105" s="1">
         <f t="shared" si="1"/>
         <v>73.529411764705884</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106">
         <v>3000</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>1000</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>30</v>
       </c>
-      <c r="D106" s="1">
+      <c r="E106" s="1">
         <f t="shared" si="1"/>
         <v>928.57142857142867</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107">
         <v>4000</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>200</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>50</v>
       </c>
-      <c r="D107" s="1">
+      <c r="E107" s="1">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108">
         <v>3500</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>500</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>40</v>
       </c>
-      <c r="D108" s="1">
+      <c r="E108" s="1">
         <f t="shared" si="1"/>
         <v>833.33333333333337</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109">
         <v>4000</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>350</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>20</v>
       </c>
-      <c r="D109" s="1">
+      <c r="E109" s="1">
         <f t="shared" si="1"/>
         <v>675</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110">
         <v>100</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>30</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>10</v>
       </c>
-      <c r="D110" s="1">
+      <c r="E110" s="1">
         <f t="shared" si="1"/>
         <v>26.111111111111107</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111">
         <v>2500</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>500</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>20</v>
       </c>
-      <c r="D111" s="1">
+      <c r="E111" s="1">
         <f t="shared" si="1"/>
         <v>562.5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112">
         <v>600</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>100</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>60</v>
       </c>
-      <c r="D112" s="1">
+      <c r="E112" s="1">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113">
         <v>6000</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>1000</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>90</v>
       </c>
-      <c r="D113" s="1">
+      <c r="E113" s="1">
         <f t="shared" si="1"/>
         <v>6500.0000000000018</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114">
         <v>1000</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>350</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>60</v>
       </c>
-      <c r="D114" s="1">
+      <c r="E114" s="1">
         <f t="shared" si="1"/>
         <v>425</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115">
         <v>250</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>50</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>30</v>
       </c>
-      <c r="D115" s="1">
+      <c r="E115" s="1">
         <f t="shared" si="1"/>
         <v>60.714285714285708</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116">
         <v>4000</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>600</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>30</v>
       </c>
-      <c r="D116" s="1">
+      <c r="E116" s="1">
         <f t="shared" si="1"/>
         <v>871.42857142857133</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117">
         <v>100</v>
-      </c>
-      <c r="B117">
-        <v>20</v>
       </c>
       <c r="C117">
         <v>20</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117">
+        <v>20</v>
+      </c>
+      <c r="E117" s="1">
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118">
         <v>5000</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>1000</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>30</v>
       </c>
-      <c r="D118" s="1">
+      <c r="E118" s="1">
         <f t="shared" si="1"/>
         <v>1214.2857142857142</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119">
         <v>20</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>5</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>2</v>
       </c>
-      <c r="D119" s="1">
+      <c r="E119" s="1">
         <f t="shared" si="1"/>
         <v>4.5408163265306118</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120">
         <v>300</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>60</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>10</v>
       </c>
-      <c r="D120" s="1">
+      <c r="E120" s="1">
         <f t="shared" si="1"/>
         <v>63.333333333333329</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121">
         <v>100</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>15</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>20</v>
       </c>
-      <c r="D121" s="1">
+      <c r="E121" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122">
         <v>5000</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>500</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>25</v>
       </c>
-      <c r="D122" s="1">
+      <c r="E122" s="1">
         <f t="shared" si="1"/>
         <v>916.66666666666674</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A123">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123">
         <v>3000</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>150</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>10</v>
       </c>
-      <c r="D123" s="1">
+      <c r="E123" s="1">
         <f t="shared" si="1"/>
         <v>408.33333333333331</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124">
         <v>2000</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>1000</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>30</v>
       </c>
-      <c r="D124" s="1">
+      <c r="E124" s="1">
         <f t="shared" si="1"/>
         <v>785.71428571428567</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125">
         <v>2000</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>500</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>70</v>
       </c>
-      <c r="D125" s="1">
+      <c r="E125" s="1">
         <f t="shared" si="1"/>
         <v>916.66666666666663</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126">
         <v>2500</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>700</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>50</v>
       </c>
-      <c r="D126" s="1">
+      <c r="E126" s="1">
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127">
         <v>2000</v>
       </c>
-      <c r="B127">
+      <c r="C127">
         <v>700</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>50</v>
       </c>
-      <c r="D127" s="1">
+      <c r="E127" s="1">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128">
         <v>1500</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>1000</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>70</v>
       </c>
-      <c r="D128" s="1">
+      <c r="E128" s="1">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129">
         <v>3000</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>400</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>40</v>
       </c>
-      <c r="D129" s="1">
+      <c r="E129" s="1">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130">
         <v>20</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>5</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>0</v>
       </c>
-      <c r="D130" s="1">
+      <c r="E130" s="1">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131">
         <v>8000</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>1000</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>60</v>
       </c>
-      <c r="D131" s="1">
-        <f t="shared" ref="D131:D152" si="2">(A131/(1-C131/100)+5*B131)/10</f>
+      <c r="E131" s="1">
+        <f t="shared" ref="E131:E152" si="2">(B131/(1-D131/100)+5*C131)/10</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132">
         <v>5000</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>500</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>60</v>
       </c>
-      <c r="D132" s="1">
+      <c r="E132" s="1">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133">
         <v>3000</v>
       </c>
-      <c r="B133">
+      <c r="C133">
         <v>1000</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>80</v>
       </c>
-      <c r="D133" s="1">
+      <c r="E133" s="1">
         <f t="shared" si="2"/>
         <v>2000.0000000000005</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134">
         <v>30</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>10</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>5</v>
       </c>
-      <c r="D134" s="1">
+      <c r="E134" s="1">
         <f t="shared" si="2"/>
         <v>8.1578947368421062</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135">
         <v>5000</v>
       </c>
-      <c r="B135">
+      <c r="C135">
         <v>400</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>50</v>
       </c>
-      <c r="D135" s="1">
+      <c r="E135" s="1">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136">
         <v>4500</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>500</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>45</v>
       </c>
-      <c r="D136" s="1">
+      <c r="E136" s="1">
         <f t="shared" si="2"/>
         <v>1068.181818181818</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137">
         <v>4500</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>550</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>40</v>
       </c>
-      <c r="D137" s="1">
+      <c r="E137" s="1">
         <f t="shared" si="2"/>
         <v>1025</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138">
         <v>3000</v>
       </c>
-      <c r="B138">
+      <c r="C138">
         <v>250</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>60</v>
       </c>
-      <c r="D138" s="1">
+      <c r="E138" s="1">
         <f t="shared" si="2"/>
         <v>875</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139">
         <v>100</v>
       </c>
-      <c r="B139">
+      <c r="C139">
         <v>20</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>5</v>
       </c>
-      <c r="D139" s="1">
+      <c r="E139" s="1">
         <f t="shared" si="2"/>
         <v>20.526315789473685</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140">
         <v>5000</v>
       </c>
-      <c r="B140">
+      <c r="C140">
         <v>350</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>40</v>
       </c>
-      <c r="D140" s="1">
+      <c r="E140" s="1">
         <f t="shared" si="2"/>
         <v>1008.3333333333334</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141">
         <v>3500</v>
       </c>
-      <c r="B141">
+      <c r="C141">
         <v>120</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>80</v>
       </c>
-      <c r="D141" s="1">
+      <c r="E141" s="1">
         <f t="shared" si="2"/>
         <v>1810.0000000000005</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142">
         <v>2000</v>
       </c>
-      <c r="B142">
+      <c r="C142">
         <v>500</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>25</v>
       </c>
-      <c r="D142" s="1">
+      <c r="E142" s="1">
         <f t="shared" si="2"/>
         <v>516.66666666666663</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143">
         <v>7000</v>
       </c>
-      <c r="B143">
+      <c r="C143">
         <v>900</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <v>50</v>
       </c>
-      <c r="D143" s="1">
+      <c r="E143" s="1">
         <f t="shared" si="2"/>
         <v>1850</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144">
         <v>10000</v>
       </c>
-      <c r="B144">
+      <c r="C144">
         <v>500</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>90</v>
       </c>
-      <c r="D144" s="1">
+      <c r="E144" s="1">
         <f t="shared" si="2"/>
         <v>10250.000000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145">
         <v>10000</v>
       </c>
-      <c r="B145">
+      <c r="C145">
         <v>1000</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>85</v>
       </c>
-      <c r="D145" s="1">
+      <c r="E145" s="1">
         <f t="shared" si="2"/>
         <v>7166.6666666666661</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146">
         <v>10000</v>
       </c>
-      <c r="B146">
+      <c r="C146">
         <v>1100</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>80</v>
       </c>
-      <c r="D146" s="1">
+      <c r="E146" s="1">
         <f t="shared" si="2"/>
         <v>5550.0000000000018</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147">
         <v>10000</v>
       </c>
-      <c r="B147">
+      <c r="C147">
         <v>1200</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <v>75</v>
       </c>
-      <c r="D147" s="1">
+      <c r="E147" s="1">
         <f t="shared" si="2"/>
         <v>4600</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148">
         <v>5000</v>
       </c>
-      <c r="B148">
+      <c r="C148">
         <v>300</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>20</v>
       </c>
-      <c r="D148" s="1">
+      <c r="E148" s="1">
         <f t="shared" si="2"/>
         <v>775</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149">
         <v>10000</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>1000</v>
       </c>
-      <c r="C149">
+      <c r="D149">
         <v>30</v>
       </c>
-      <c r="D149" s="1">
+      <c r="E149" s="1">
         <f t="shared" si="2"/>
         <v>1928.5714285714287</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150">
         <v>10000</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>1300</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <v>50</v>
       </c>
-      <c r="D150" s="1">
+      <c r="E150" s="1">
         <f t="shared" si="2"/>
         <v>2650</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151">
         <v>20000</v>
       </c>
-      <c r="B151">
+      <c r="C151">
         <v>2000</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>70</v>
       </c>
-      <c r="D151" s="1">
+      <c r="E151" s="1">
         <f t="shared" si="2"/>
         <v>7666.6666666666661</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152">
         <v>10000</v>
       </c>
-      <c r="B152">
+      <c r="C152">
         <v>1000</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>95</v>
       </c>
-      <c r="D152" s="1">
+      <c r="E152" s="1">
         <f t="shared" si="2"/>
         <v>20499.999999999982</v>
       </c>

--- a/Assets/StreamingAssets/monsters.xlsx
+++ b/Assets/StreamingAssets/monsters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,6 +490,36 @@
   </si>
   <si>
     <t>(hp/(1-defence/100)+5*attack)/10</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>红宝石</t>
+  </si>
+  <si>
+    <t>蓝宝石</t>
+  </si>
+  <si>
+    <t>小生命药水</t>
+  </si>
+  <si>
+    <t>中生命药水</t>
+  </si>
+  <si>
+    <t>大生命药水</t>
   </si>
 </sst>
 </file>
@@ -842,15 +872,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H3" sqref="H3:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>155</v>
       </c>
@@ -870,7 +900,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -888,7 +918,7 @@
         <v>6.5408163265306118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -905,8 +935,23 @@
         <f t="shared" ref="E3:E66" si="0">(B3/(1-D3/100)+5*C3)/10</f>
         <v>74.444444444444443</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -923,8 +968,23 @@
         <f t="shared" si="0"/>
         <v>3550</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -941,8 +1001,23 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -959,8 +1034,23 @@
         <f t="shared" si="0"/>
         <v>70.353535353535364</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -977,8 +1067,23 @@
         <f t="shared" si="0"/>
         <v>3083.333333333333</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -995,8 +1100,23 @@
         <f t="shared" si="0"/>
         <v>6.1649484536082477</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1014,7 +1134,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1032,7 +1152,7 @@
         <v>6349.9999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1050,7 +1170,7 @@
         <v>3.5101010101010104</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1068,7 +1188,7 @@
         <v>7.8571428571428568</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1206,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1104,7 +1224,7 @@
         <v>8.5101010101010104</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1122,7 +1242,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>18</v>
       </c>

--- a/Assets/StreamingAssets/monsters.xlsx
+++ b/Assets/StreamingAssets/monsters.xlsx
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <f>(C2/(1-E2/100)+5*D2)/10</f>
+        <f t="shared" ref="F2:F33" si="0">(C2/(1-E2/100)+5*D2)/10</f>
         <v>3.0101010101010099</v>
       </c>
     </row>
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <f>(C3/(1-E3/100)+5*D3)/10</f>
+        <f t="shared" si="0"/>
         <v>3.5101010101010104</v>
       </c>
     </row>
@@ -969,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f>(C4/(1-E4/100)+5*D4)/10</f>
+        <f t="shared" si="0"/>
         <v>3.5101010101010104</v>
       </c>
     </row>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f>(C5/(1-E5/100)+5*D5)/10</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="1">
-        <f>(C6/(1-E6/100)+5*D6)/10</f>
+        <f t="shared" si="0"/>
         <v>4.5408163265306118</v>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="1">
-        <f>(C7/(1-E7/100)+5*D7)/10</f>
+        <f t="shared" si="0"/>
         <v>6.0204081632653059</v>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="1">
-        <f>(C8/(1-E8/100)+5*D8)/10</f>
+        <f t="shared" si="0"/>
         <v>6.0309278350515463</v>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="1">
-        <f>(C9/(1-E9/100)+5*D9)/10</f>
+        <f t="shared" si="0"/>
         <v>6.1649484536082477</v>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="1">
-        <f>(C10/(1-E10/100)+5*D10)/10</f>
+        <f t="shared" si="0"/>
         <v>6.5408163265306118</v>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f>(C11/(1-E11/100)+5*D11)/10</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="1">
-        <f>(C12/(1-E12/100)+5*D12)/10</f>
+        <f t="shared" si="0"/>
         <v>7.8571428571428568</v>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="1">
-        <f>(C13/(1-E13/100)+5*D13)/10</f>
+        <f t="shared" si="0"/>
         <v>8.0612244897959187</v>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="1">
-        <f>(C14/(1-E14/100)+5*D14)/10</f>
+        <f t="shared" si="0"/>
         <v>8.1578947368421062</v>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <f>(C15/(1-E15/100)+5*D15)/10</f>
+        <f t="shared" si="0"/>
         <v>8.5101010101010104</v>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="1">
-        <f>(C16/(1-E16/100)+5*D16)/10</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="1">
-        <f>(C17/(1-E17/100)+5*D17)/10</f>
+        <f t="shared" si="0"/>
         <v>12.216494845360824</v>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="1">
-        <f>(C18/(1-E18/100)+5*D18)/10</f>
+        <f t="shared" si="0"/>
         <v>18.611111111111111</v>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="1">
-        <f>(C19/(1-E19/100)+5*D19)/10</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="1">
-        <f>(C20/(1-E20/100)+5*D20)/10</f>
+        <f t="shared" si="0"/>
         <v>20.526315789473685</v>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="1">
-        <f>(C21/(1-E21/100)+5*D21)/10</f>
+        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="1">
-        <f>(C22/(1-E22/100)+5*D22)/10</f>
+        <f t="shared" si="0"/>
         <v>26.111111111111107</v>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
         <v>20</v>
       </c>
       <c r="F23" s="1">
-        <f>(C23/(1-E23/100)+5*D23)/10</f>
+        <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="1">
-        <f>(C24/(1-E24/100)+5*D24)/10</f>
+        <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="1">
-        <f>(C25/(1-E25/100)+5*D25)/10</f>
+        <f t="shared" si="0"/>
         <v>29.166666666666668</v>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
         <v>15</v>
       </c>
       <c r="F26" s="1">
-        <f>(C26/(1-E26/100)+5*D26)/10</f>
+        <f t="shared" si="0"/>
         <v>29.264705882352938</v>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
         <v>30</v>
       </c>
       <c r="F27" s="1">
-        <f>(C27/(1-E27/100)+5*D27)/10</f>
+        <f t="shared" si="0"/>
         <v>29.285714285714288</v>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="1">
-        <f>(C28/(1-E28/100)+5*D28)/10</f>
+        <f t="shared" si="0"/>
         <v>31.428571428571434</v>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="1">
-        <f>(C29/(1-E29/100)+5*D29)/10</f>
+        <f t="shared" si="0"/>
         <v>31.666666666666664</v>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
         <v>40</v>
       </c>
       <c r="F30" s="1">
-        <f>(C30/(1-E30/100)+5*D30)/10</f>
+        <f t="shared" si="0"/>
         <v>31.666666666666668</v>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="1">
-        <f>(C31/(1-E31/100)+5*D31)/10</f>
+        <f t="shared" si="0"/>
         <v>32.5</v>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
         <v>15</v>
       </c>
       <c r="F32" s="1">
-        <f>(C32/(1-E32/100)+5*D32)/10</f>
+        <f t="shared" si="0"/>
         <v>36.32352941176471</v>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="1">
-        <f>(C33/(1-E33/100)+5*D33)/10</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="F34" s="1">
-        <f>(C34/(1-E34/100)+5*D34)/10</f>
+        <f t="shared" ref="F34:F65" si="1">(C34/(1-E34/100)+5*D34)/10</f>
         <v>41.05263157894737</v>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="1">
-        <f>(C35/(1-E35/100)+5*D35)/10</f>
+        <f t="shared" si="1"/>
         <v>53.571428571428577</v>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
         <v>60</v>
       </c>
       <c r="F36" s="1">
-        <f>(C36/(1-E36/100)+5*D36)/10</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="1">
-        <f>(C37/(1-E37/100)+5*D37)/10</f>
+        <f t="shared" si="1"/>
         <v>58.333333333333329</v>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
         <v>20</v>
       </c>
       <c r="F38" s="1">
-        <f>(C38/(1-E38/100)+5*D38)/10</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
         <v>25</v>
       </c>
       <c r="F39" s="1">
-        <f>(C39/(1-E39/100)+5*D39)/10</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
         <v>40</v>
       </c>
       <c r="F40" s="1">
-        <f>(C40/(1-E40/100)+5*D40)/10</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
         <v>15</v>
       </c>
       <c r="F41" s="1">
-        <f>(C41/(1-E41/100)+5*D41)/10</f>
+        <f t="shared" si="1"/>
         <v>60.294117647058826</v>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
         <v>30</v>
       </c>
       <c r="F42" s="1">
-        <f>(C42/(1-E42/100)+5*D42)/10</f>
+        <f t="shared" si="1"/>
         <v>60.714285714285708</v>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
         <v>35</v>
       </c>
       <c r="F43" s="1">
-        <f>(C43/(1-E43/100)+5*D43)/10</f>
+        <f t="shared" si="1"/>
         <v>61.153846153846153</v>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
         <v>35</v>
       </c>
       <c r="F44" s="1">
-        <f>(C44/(1-E44/100)+5*D44)/10</f>
+        <f t="shared" si="1"/>
         <v>61.153846153846153</v>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
         <v>10</v>
       </c>
       <c r="F45" s="1">
-        <f>(C45/(1-E45/100)+5*D45)/10</f>
+        <f t="shared" si="1"/>
         <v>62.222222222222214</v>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
         <v>10</v>
       </c>
       <c r="F46" s="1">
-        <f>(C46/(1-E46/100)+5*D46)/10</f>
+        <f t="shared" si="1"/>
         <v>63.333333333333329</v>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
         <v>10</v>
       </c>
       <c r="F47" s="1">
-        <f>(C47/(1-E47/100)+5*D47)/10</f>
+        <f t="shared" si="1"/>
         <v>63.888888888888893</v>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="1">
-        <f>(C48/(1-E48/100)+5*D48)/10</f>
+        <f t="shared" si="1"/>
         <v>70.353535353535364</v>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
         <v>15</v>
       </c>
       <c r="F49" s="1">
-        <f>(C49/(1-E49/100)+5*D49)/10</f>
+        <f t="shared" si="1"/>
         <v>73.529411764705884</v>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="F50" s="1">
-        <f>(C50/(1-E50/100)+5*D50)/10</f>
+        <f t="shared" si="1"/>
         <v>74.444444444444443</v>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
         <v>20</v>
       </c>
       <c r="F51" s="1">
-        <f>(C51/(1-E51/100)+5*D51)/10</f>
+        <f t="shared" si="1"/>
         <v>81.25</v>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
         <v>10</v>
       </c>
       <c r="F52" s="1">
-        <f>(C52/(1-E52/100)+5*D52)/10</f>
+        <f t="shared" si="1"/>
         <v>83.333333333333329</v>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
         <v>10</v>
       </c>
       <c r="F53" s="1">
-        <f>(C53/(1-E53/100)+5*D53)/10</f>
+        <f t="shared" si="1"/>
         <v>83.333333333333329</v>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="1">
-        <f>(C54/(1-E54/100)+5*D54)/10</f>
+        <f t="shared" si="1"/>
         <v>83.333333333333329</v>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
         <v>20</v>
       </c>
       <c r="F55" s="1">
-        <f>(C55/(1-E55/100)+5*D55)/10</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
         <v>5</v>
       </c>
       <c r="F56" s="1">
-        <f>(C56/(1-E56/100)+5*D56)/10</f>
+        <f t="shared" si="1"/>
         <v>92.10526315789474</v>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
         <v>40</v>
       </c>
       <c r="F57" s="1">
-        <f>(C57/(1-E57/100)+5*D57)/10</f>
+        <f t="shared" si="1"/>
         <v>93.333333333333343</v>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="1">
-        <f>(C58/(1-E58/100)+5*D58)/10</f>
+        <f t="shared" si="1"/>
         <v>93.82352941176471</v>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="F59" s="1">
-        <f>(C59/(1-E59/100)+5*D59)/10</f>
+        <f t="shared" si="1"/>
         <v>98.684210526315795</v>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
         <v>50</v>
       </c>
       <c r="F60" s="1">
-        <f>(C60/(1-E60/100)+5*D60)/10</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="F61" s="1">
-        <f>(C61/(1-E61/100)+5*D61)/10</f>
+        <f t="shared" si="1"/>
         <v>105.55555555555557</v>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="F62" s="1">
-        <f>(C62/(1-E62/100)+5*D62)/10</f>
+        <f t="shared" si="1"/>
         <v>106.57894736842104</v>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
         <v>15</v>
       </c>
       <c r="F63" s="1">
-        <f>(C63/(1-E63/100)+5*D63)/10</f>
+        <f t="shared" si="1"/>
         <v>144.11764705882354</v>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
         <v>20</v>
       </c>
       <c r="F64" s="1">
-        <f>(C64/(1-E64/100)+5*D64)/10</f>
+        <f t="shared" si="1"/>
         <v>146.25</v>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
         <v>50</v>
       </c>
       <c r="F65" s="1">
-        <f>(C65/(1-E65/100)+5*D65)/10</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
         <v>60</v>
       </c>
       <c r="F66" s="1">
-        <f>(C66/(1-E66/100)+5*D66)/10</f>
+        <f t="shared" ref="F66:F97" si="2">(C66/(1-E66/100)+5*D66)/10</f>
         <v>200</v>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
         <v>80</v>
       </c>
       <c r="F67" s="1">
-        <f>(C67/(1-E67/100)+5*D67)/10</f>
+        <f t="shared" si="2"/>
         <v>200.00000000000006</v>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
         <v>40</v>
       </c>
       <c r="F68" s="1">
-        <f>(C68/(1-E68/100)+5*D68)/10</f>
+        <f t="shared" si="2"/>
         <v>216.66666666666669</v>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
         <v>20</v>
       </c>
       <c r="F69" s="1">
-        <f>(C69/(1-E69/100)+5*D69)/10</f>
+        <f t="shared" si="2"/>
         <v>287.5</v>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
         <v>60</v>
       </c>
       <c r="F70" s="1">
-        <f>(C70/(1-E70/100)+5*D70)/10</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
         <v>25</v>
       </c>
       <c r="F71" s="1">
-        <f>(C71/(1-E71/100)+5*D71)/10</f>
+        <f t="shared" si="2"/>
         <v>316.66666666666663</v>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
         <v>60</v>
       </c>
       <c r="F72" s="1">
-        <f>(C72/(1-E72/100)+5*D72)/10</f>
+        <f t="shared" si="2"/>
         <v>350</v>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
         <v>35</v>
       </c>
       <c r="F73" s="1">
-        <f>(C73/(1-E73/100)+5*D73)/10</f>
+        <f t="shared" si="2"/>
         <v>396.15384615384613</v>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
         <v>10</v>
       </c>
       <c r="F74" s="1">
-        <f>(C74/(1-E74/100)+5*D74)/10</f>
+        <f t="shared" si="2"/>
         <v>408.33333333333331</v>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
         <v>60</v>
       </c>
       <c r="F75" s="1">
-        <f>(C75/(1-E75/100)+5*D75)/10</f>
+        <f t="shared" si="2"/>
         <v>425</v>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
         <v>40</v>
       </c>
       <c r="F76" s="1">
-        <f>(C76/(1-E76/100)+5*D76)/10</f>
+        <f t="shared" si="2"/>
         <v>433.33333333333337</v>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
         <v>15</v>
       </c>
       <c r="F77" s="1">
-        <f>(C77/(1-E77/100)+5*D77)/10</f>
+        <f t="shared" si="2"/>
         <v>452.94117647058829</v>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
         <v>25</v>
       </c>
       <c r="F78" s="1">
-        <f>(C78/(1-E78/100)+5*D78)/10</f>
+        <f t="shared" si="2"/>
         <v>516.66666666666663</v>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
         <v>20</v>
       </c>
       <c r="F79" s="1">
-        <f>(C79/(1-E79/100)+5*D79)/10</f>
+        <f t="shared" si="2"/>
         <v>562.5</v>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
         <v>40</v>
       </c>
       <c r="F80" s="1">
-        <f>(C80/(1-E80/100)+5*D80)/10</f>
+        <f t="shared" si="2"/>
         <v>566.66666666666674</v>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
         <v>20</v>
       </c>
       <c r="F81" s="1">
-        <f>(C81/(1-E81/100)+5*D81)/10</f>
+        <f t="shared" si="2"/>
         <v>675</v>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
         <v>40</v>
       </c>
       <c r="F82" s="1">
-        <f>(C82/(1-E82/100)+5*D82)/10</f>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
     </row>
@@ -2628,7 +2628,7 @@
         <v>50</v>
       </c>
       <c r="F83" s="1">
-        <f>(C83/(1-E83/100)+5*D83)/10</f>
+        <f t="shared" si="2"/>
         <v>725</v>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
         <v>25</v>
       </c>
       <c r="F84" s="1">
-        <f>(C84/(1-E84/100)+5*D84)/10</f>
+        <f t="shared" si="2"/>
         <v>733.33333333333326</v>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
         <v>50</v>
       </c>
       <c r="F85" s="1">
-        <f>(C85/(1-E85/100)+5*D85)/10</f>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
         <v>50</v>
       </c>
       <c r="F86" s="1">
-        <f>(C86/(1-E86/100)+5*D86)/10</f>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
     </row>
@@ -2712,7 +2712,7 @@
         <v>20</v>
       </c>
       <c r="F87" s="1">
-        <f>(C87/(1-E87/100)+5*D87)/10</f>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
         <v>55</v>
       </c>
       <c r="F88" s="1">
-        <f>(C88/(1-E88/100)+5*D88)/10</f>
+        <f t="shared" si="2"/>
         <v>766.66666666666674</v>
       </c>
     </row>
@@ -2754,7 +2754,7 @@
         <v>20</v>
       </c>
       <c r="F89" s="1">
-        <f>(C89/(1-E89/100)+5*D89)/10</f>
+        <f t="shared" si="2"/>
         <v>775</v>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
         <v>30</v>
       </c>
       <c r="F90" s="1">
-        <f>(C90/(1-E90/100)+5*D90)/10</f>
+        <f t="shared" si="2"/>
         <v>785.71428571428567</v>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
         <v>30</v>
       </c>
       <c r="F91" s="1">
-        <f>(C91/(1-E91/100)+5*D91)/10</f>
+        <f t="shared" si="2"/>
         <v>814.28571428571433</v>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
         <v>30</v>
       </c>
       <c r="F92" s="1">
-        <f>(C92/(1-E92/100)+5*D92)/10</f>
+        <f t="shared" si="2"/>
         <v>828.57142857142867</v>
       </c>
     </row>
@@ -2838,7 +2838,7 @@
         <v>40</v>
       </c>
       <c r="F93" s="1">
-        <f>(C93/(1-E93/100)+5*D93)/10</f>
+        <f t="shared" si="2"/>
         <v>833.33333333333337</v>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
         <v>50</v>
       </c>
       <c r="F94" s="1">
-        <f>(C94/(1-E94/100)+5*D94)/10</f>
+        <f t="shared" si="2"/>
         <v>850</v>
       </c>
     </row>
@@ -2880,7 +2880,7 @@
         <v>15</v>
       </c>
       <c r="F95" s="1">
-        <f>(C95/(1-E95/100)+5*D95)/10</f>
+        <f t="shared" si="2"/>
         <v>852.94117647058829</v>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
         <v>30</v>
       </c>
       <c r="F96" s="1">
-        <f>(C96/(1-E96/100)+5*D96)/10</f>
+        <f t="shared" si="2"/>
         <v>871.42857142857133</v>
       </c>
     </row>
@@ -2922,7 +2922,7 @@
         <v>60</v>
       </c>
       <c r="F97" s="1">
-        <f>(C97/(1-E97/100)+5*D97)/10</f>
+        <f t="shared" si="2"/>
         <v>875</v>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
         <v>50</v>
       </c>
       <c r="F98" s="1">
-        <f>(C98/(1-E98/100)+5*D98)/10</f>
+        <f t="shared" ref="F98:F129" si="3">(C98/(1-E98/100)+5*D98)/10</f>
         <v>900</v>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
         <v>70</v>
       </c>
       <c r="F99" s="1">
-        <f>(C99/(1-E99/100)+5*D99)/10</f>
+        <f t="shared" si="3"/>
         <v>916.66666666666663</v>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
         <v>25</v>
       </c>
       <c r="F100" s="1">
-        <f>(C100/(1-E100/100)+5*D100)/10</f>
+        <f t="shared" si="3"/>
         <v>916.66666666666674</v>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
         <v>40</v>
       </c>
       <c r="F101" s="1">
-        <f>(C101/(1-E101/100)+5*D101)/10</f>
+        <f t="shared" si="3"/>
         <v>916.66666666666674</v>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
         <v>60</v>
       </c>
       <c r="F102" s="1">
-        <f>(C102/(1-E102/100)+5*D102)/10</f>
+        <f t="shared" si="3"/>
         <v>925</v>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
         <v>30</v>
       </c>
       <c r="F103" s="1">
-        <f>(C103/(1-E103/100)+5*D103)/10</f>
+        <f t="shared" si="3"/>
         <v>928.57142857142867</v>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
         <v>35</v>
       </c>
       <c r="F104" s="1">
-        <f>(C104/(1-E104/100)+5*D104)/10</f>
+        <f t="shared" si="3"/>
         <v>944.23076923076917</v>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
         <v>70</v>
       </c>
       <c r="F105" s="1">
-        <f>(C105/(1-E105/100)+5*D105)/10</f>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
         <v>20</v>
       </c>
       <c r="F106" s="1">
-        <f>(C106/(1-E106/100)+5*D106)/10</f>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
         <v>20</v>
       </c>
       <c r="F107" s="1">
-        <f>(C107/(1-E107/100)+5*D107)/10</f>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
         <v>40</v>
       </c>
       <c r="F108" s="1">
-        <f>(C108/(1-E108/100)+5*D108)/10</f>
+        <f t="shared" si="3"/>
         <v>1008.3333333333334</v>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
         <v>40</v>
       </c>
       <c r="F109" s="1">
-        <f>(C109/(1-E109/100)+5*D109)/10</f>
+        <f t="shared" si="3"/>
         <v>1025</v>
       </c>
     </row>
@@ -3195,7 +3195,7 @@
         <v>45</v>
       </c>
       <c r="F110" s="1">
-        <f>(C110/(1-E110/100)+5*D110)/10</f>
+        <f t="shared" si="3"/>
         <v>1068.181818181818</v>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
         <v>70</v>
       </c>
       <c r="F111" s="1">
-        <f>(C111/(1-E111/100)+5*D111)/10</f>
+        <f t="shared" si="3"/>
         <v>1099.9999999999998</v>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
         <v>60</v>
       </c>
       <c r="F112" s="1">
-        <f>(C112/(1-E112/100)+5*D112)/10</f>
+        <f t="shared" si="3"/>
         <v>1150</v>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
         <v>35</v>
       </c>
       <c r="F113" s="1">
-        <f>(C113/(1-E113/100)+5*D113)/10</f>
+        <f t="shared" si="3"/>
         <v>1169.2307692307691</v>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
         <v>50</v>
       </c>
       <c r="F114" s="1">
-        <f>(C114/(1-E114/100)+5*D114)/10</f>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
     </row>
@@ -3300,7 +3300,7 @@
         <v>30</v>
       </c>
       <c r="F115" s="1">
-        <f>(C115/(1-E115/100)+5*D115)/10</f>
+        <f t="shared" si="3"/>
         <v>1214.2857142857142</v>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
         <v>15</v>
       </c>
       <c r="F116" s="1">
-        <f>(C116/(1-E116/100)+5*D116)/10</f>
+        <f t="shared" si="3"/>
         <v>1223.5294117647059</v>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
         <v>70</v>
       </c>
       <c r="F117" s="1">
-        <f>(C117/(1-E117/100)+5*D117)/10</f>
+        <f t="shared" si="3"/>
         <v>1241.6666666666665</v>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
         <v>60</v>
       </c>
       <c r="F118" s="1">
-        <f>(C118/(1-E118/100)+5*D118)/10</f>
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
         <v>60</v>
       </c>
       <c r="F119" s="1">
-        <f>(C119/(1-E119/100)+5*D119)/10</f>
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
         <v>50</v>
       </c>
       <c r="F120" s="1">
-        <f>(C120/(1-E120/100)+5*D120)/10</f>
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
         <v>40</v>
       </c>
       <c r="F121" s="1">
-        <f>(C121/(1-E121/100)+5*D121)/10</f>
+        <f t="shared" si="3"/>
         <v>1333.3333333333335</v>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
         <v>70</v>
       </c>
       <c r="F122" s="1">
-        <f>(C122/(1-E122/100)+5*D122)/10</f>
+        <f t="shared" si="3"/>
         <v>1383.3333333333333</v>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
         <v>85</v>
       </c>
       <c r="F123" s="1">
-        <f>(C123/(1-E123/100)+5*D123)/10</f>
+        <f t="shared" si="3"/>
         <v>1433.3333333333333</v>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
         <v>50</v>
       </c>
       <c r="F124" s="1">
-        <f>(C124/(1-E124/100)+5*D124)/10</f>
+        <f t="shared" si="3"/>
         <v>1450</v>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
         <v>60</v>
       </c>
       <c r="F125" s="1">
-        <f>(C125/(1-E125/100)+5*D125)/10</f>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
         <v>60</v>
       </c>
       <c r="F126" s="1">
-        <f>(C126/(1-E126/100)+5*D126)/10</f>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
     </row>
@@ -3552,7 +3552,7 @@
         <v>30</v>
       </c>
       <c r="F127" s="1">
-        <f>(C127/(1-E127/100)+5*D127)/10</f>
+        <f t="shared" si="3"/>
         <v>1750</v>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
         <v>70</v>
       </c>
       <c r="F128" s="1">
-        <f>(C128/(1-E128/100)+5*D128)/10</f>
+        <f t="shared" si="3"/>
         <v>1783.3333333333333</v>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
         <v>65</v>
       </c>
       <c r="F129" s="1">
-        <f>(C129/(1-E129/100)+5*D129)/10</f>
+        <f t="shared" si="3"/>
         <v>1792.8571428571427</v>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
         <v>80</v>
       </c>
       <c r="F130" s="1">
-        <f>(C130/(1-E130/100)+5*D130)/10</f>
+        <f t="shared" ref="F130:F161" si="4">(C130/(1-E130/100)+5*D130)/10</f>
         <v>1810.0000000000005</v>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
         <v>50</v>
       </c>
       <c r="F131" s="1">
-        <f>(C131/(1-E131/100)+5*D131)/10</f>
+        <f t="shared" si="4"/>
         <v>1850</v>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
         <v>30</v>
       </c>
       <c r="F132" s="1">
-        <f>(C132/(1-E132/100)+5*D132)/10</f>
+        <f t="shared" si="4"/>
         <v>1928.5714285714287</v>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
         <v>50</v>
       </c>
       <c r="F133" s="1">
-        <f>(C133/(1-E133/100)+5*D133)/10</f>
+        <f t="shared" si="4"/>
         <v>1950</v>
       </c>
     </row>
@@ -3699,7 +3699,7 @@
         <v>80</v>
       </c>
       <c r="F134" s="1">
-        <f>(C134/(1-E134/100)+5*D134)/10</f>
+        <f t="shared" si="4"/>
         <v>2000.0000000000005</v>
       </c>
     </row>
@@ -3720,7 +3720,7 @@
         <v>70</v>
       </c>
       <c r="F135" s="1">
-        <f>(C135/(1-E135/100)+5*D135)/10</f>
+        <f t="shared" si="4"/>
         <v>2399.9999999999995</v>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
         <v>50</v>
       </c>
       <c r="F136" s="1">
-        <f>(C136/(1-E136/100)+5*D136)/10</f>
+        <f t="shared" si="4"/>
         <v>2400</v>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
         <v>60</v>
       </c>
       <c r="F137" s="1">
-        <f>(C137/(1-E137/100)+5*D137)/10</f>
+        <f t="shared" si="4"/>
         <v>2500</v>
       </c>
     </row>
@@ -3783,7 +3783,7 @@
         <v>50</v>
       </c>
       <c r="F138" s="1">
-        <f>(C138/(1-E138/100)+5*D138)/10</f>
+        <f t="shared" si="4"/>
         <v>2650</v>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
         <v>80</v>
       </c>
       <c r="F139" s="1">
-        <f>(C139/(1-E139/100)+5*D139)/10</f>
+        <f t="shared" si="4"/>
         <v>2650.0000000000009</v>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
         <v>85</v>
       </c>
       <c r="F140" s="1">
-        <f>(C140/(1-E140/100)+5*D140)/10</f>
+        <f t="shared" si="4"/>
         <v>2791.6666666666665</v>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
         <v>70</v>
       </c>
       <c r="F141" s="1">
-        <f>(C141/(1-E141/100)+5*D141)/10</f>
+        <f t="shared" si="4"/>
         <v>3083.333333333333</v>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
         <v>75</v>
       </c>
       <c r="F142" s="1">
-        <f>(C142/(1-E142/100)+5*D142)/10</f>
+        <f t="shared" si="4"/>
         <v>3550</v>
       </c>
     </row>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F143" s="1">
-        <f>(C143/(1-E143/100)+5*D143)/10</f>
+        <f t="shared" si="4"/>
         <v>3750.0000000000009</v>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
         <v>70</v>
       </c>
       <c r="F144" s="1">
-        <f>(C144/(1-E144/100)+5*D144)/10</f>
+        <f t="shared" si="4"/>
         <v>3833.333333333333</v>
       </c>
     </row>
@@ -3930,7 +3930,7 @@
         <v>75</v>
       </c>
       <c r="F145" s="1">
-        <f>(C145/(1-E145/100)+5*D145)/10</f>
+        <f t="shared" si="4"/>
         <v>4600</v>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
         <v>80</v>
       </c>
       <c r="F146" s="1">
-        <f>(C146/(1-E146/100)+5*D146)/10</f>
+        <f t="shared" si="4"/>
         <v>5550.0000000000018</v>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
         <v>85</v>
       </c>
       <c r="F147" s="1">
-        <f>(C147/(1-E147/100)+5*D147)/10</f>
+        <f t="shared" si="4"/>
         <v>6349.9999999999991</v>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
         <v>90</v>
       </c>
       <c r="F148" s="1">
-        <f>(C148/(1-E148/100)+5*D148)/10</f>
+        <f t="shared" si="4"/>
         <v>6500.0000000000018</v>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
         <v>85</v>
       </c>
       <c r="F149" s="1">
-        <f>(C149/(1-E149/100)+5*D149)/10</f>
+        <f t="shared" si="4"/>
         <v>7166.6666666666661</v>
       </c>
     </row>
@@ -4035,7 +4035,7 @@
         <v>70</v>
       </c>
       <c r="F150" s="1">
-        <f>(C150/(1-E150/100)+5*D150)/10</f>
+        <f t="shared" si="4"/>
         <v>7666.6666666666661</v>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
         <v>90</v>
       </c>
       <c r="F151" s="1">
-        <f>(C151/(1-E151/100)+5*D151)/10</f>
+        <f t="shared" si="4"/>
         <v>10250.000000000004</v>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
         <v>95</v>
       </c>
       <c r="F152" s="1">
-        <f>(C152/(1-E152/100)+5*D152)/10</f>
+        <f t="shared" si="4"/>
         <v>20499.999999999982</v>
       </c>
     </row>

--- a/Assets/StreamingAssets/monsters.xlsx
+++ b/Assets/StreamingAssets/monsters.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B24C27-6DB8-47A7-8103-DE6260B7771D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="怪物" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">怪物!$A$1:$F$152</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -535,7 +536,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -596,7 +597,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -671,6 +672,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -706,6 +724,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -881,14 +916,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -912,212 +954,212 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F33" si="0">(C2/(1-E2/100)+5*D2)/10</f>
-        <v>3.0101010101010099</v>
+        <f>(C2/(1-E2/100)+5*D2)/10</f>
+        <v>6.5408163265306118</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5101010101010104</v>
+        <f>(C3/(1-E3/100)+5*D3)/10</f>
+        <v>74.444444444444443</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>8000</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>700</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5101010101010104</v>
+        <f>(C4/(1-E4/100)+5*D4)/10</f>
+        <v>3550</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
+        <f>(C5/(1-E5/100)+5*D5)/10</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5408163265306118</v>
+        <f>(C6/(1-E6/100)+5*D6)/10</f>
+        <v>70.353535353535364</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>7000</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>6.0204081632653059</v>
+        <f>(C7/(1-E7/100)+5*D7)/10</f>
+        <v>3083.333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>6.0309278350515463</v>
+        <f>(C8/(1-E8/100)+5*D8)/10</f>
+        <v>6.1649484536082477</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>450</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>6.1649484536082477</v>
+        <f>(C9/(1-E9/100)+5*D9)/10</f>
+        <v>81.25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>9000</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>6.5408163265306118</v>
+        <f>(C10/(1-E10/100)+5*D10)/10</f>
+        <v>6349.9999999999991</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
+        <f>(C11/(1-E11/100)+5*D11)/10</f>
+        <v>3.5101010101010104</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1137,103 +1179,103 @@
         <v>30</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
+        <f>(C12/(1-E12/100)+5*D12)/10</f>
         <v>7.8571428571428568</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>8.0612244897959187</v>
+        <f>(C13/(1-E13/100)+5*D13)/10</f>
+        <v>287.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>8.1578947368421062</v>
+        <f>(C14/(1-E14/100)+5*D14)/10</f>
+        <v>8.5101010101010104</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>8.5101010101010104</v>
+        <f>(C15/(1-E15/100)+5*D15)/10</f>
+        <v>10.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>700</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
+        <f>(C16/(1-E16/100)+5*D16)/10</f>
+        <v>396.15384615384613</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -1242,2696 +1284,2696 @@
         <v>3</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>12.216494845360824</v>
+        <f>(C17/(1-E17/100)+5*D17)/10</f>
+        <v>6.0309278350515463</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C18">
+        <v>400</v>
+      </c>
+      <c r="D18">
         <v>100</v>
       </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
       <c r="E18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>18.611111111111111</v>
+        <f>(C18/(1-E18/100)+5*D18)/10</f>
+        <v>92.10526315789474</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>(C19/(1-E19/100)+5*D19)/10</f>
+        <v>1450</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>20.526315789473685</v>
+        <f>(C20/(1-E20/100)+5*D20)/10</f>
+        <v>3.5101010101010104</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21">
         <v>100</v>
       </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
       <c r="E21">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
+        <f>(C21/(1-E21/100)+5*D21)/10</f>
+        <v>216.66666666666669</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>26.111111111111107</v>
+        <f>(C22/(1-E22/100)+5*D22)/10</f>
+        <v>8.0612244897959187</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>27.5</v>
+        <f>(C23/(1-E23/100)+5*D23)/10</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
         <v>30</v>
       </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
       <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>27.5</v>
+        <f>(C24/(1-E24/100)+5*D24)/10</f>
+        <v>53.571428571428577</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>1300</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>29.166666666666668</v>
+        <f>(C25/(1-E25/100)+5*D25)/10</f>
+        <v>1792.8571428571427</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C26">
+        <v>500</v>
+      </c>
+      <c r="D26">
         <v>100</v>
       </c>
-      <c r="D26">
-        <v>35</v>
-      </c>
       <c r="E26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="0"/>
-        <v>29.264705882352938</v>
+        <f>(C26/(1-E26/100)+5*D26)/10</f>
+        <v>105.55555555555557</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C27">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>29.285714285714288</v>
+        <f>(C27/(1-E27/100)+5*D27)/10</f>
+        <v>750</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="C28">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E28">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="0"/>
-        <v>31.428571428571434</v>
+        <f>(C28/(1-E28/100)+5*D28)/10</f>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C29">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="0"/>
-        <v>31.666666666666664</v>
+        <f>(C29/(1-E29/100)+5*D29)/10</f>
+        <v>1433.3333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C30">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="0"/>
-        <v>31.666666666666668</v>
+        <f>(C30/(1-E30/100)+5*D30)/10</f>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="C31">
+        <v>800</v>
+      </c>
+      <c r="D31">
         <v>100</v>
       </c>
-      <c r="D31">
-        <v>25</v>
-      </c>
       <c r="E31">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>32.5</v>
+        <f>(C31/(1-E31/100)+5*D31)/10</f>
+        <v>144.11764705882354</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32">
-        <v>160</v>
+        <v>4000</v>
       </c>
       <c r="D32">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="E32">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="0"/>
-        <v>36.32352941176471</v>
+        <f>(C32/(1-E32/100)+5*D32)/10</f>
+        <v>733.33333333333326</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C33">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D33">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E33">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="0"/>
-        <v>36.666666666666664</v>
+        <f>(C33/(1-E33/100)+5*D33)/10</f>
+        <v>36.32352941176471</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C34">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="D34">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34:F65" si="1">(C34/(1-E34/100)+5*D34)/10</f>
-        <v>41.05263157894737</v>
+        <f>(C34/(1-E34/100)+5*D34)/10</f>
+        <v>146.25</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C35">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="D35">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="E35">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="1"/>
-        <v>53.571428571428577</v>
+        <f>(C35/(1-E35/100)+5*D35)/10</f>
+        <v>944.23076923076917</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C36">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>40</v>
+      </c>
+      <c r="F36" s="1">
+        <f>(C36/(1-E36/100)+5*D36)/10</f>
         <v>60</v>
-      </c>
-      <c r="E36">
-        <v>60</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" si="1"/>
-        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="C37">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="D37">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="1"/>
-        <v>58.333333333333329</v>
+        <f>(C37/(1-E37/100)+5*D37)/10</f>
+        <v>1383.3333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C38">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D38">
         <v>70</v>
       </c>
       <c r="E38">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>(C38/(1-E38/100)+5*D38)/10</f>
+        <v>93.82352941176471</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39">
-        <v>150</v>
+        <v>5000</v>
       </c>
       <c r="D39">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="E39">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>(C39/(1-E39/100)+5*D39)/10</f>
+        <v>1169.2307692307691</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>300</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>(C40/(1-E40/100)+5*D40)/10</f>
+        <v>61.153846153846153</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="C41">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="D41">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E41">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="1"/>
-        <v>60.294117647058826</v>
+        <f>(C41/(1-E41/100)+5*D41)/10</f>
+        <v>1099.9999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C42">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D42">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E42">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="1"/>
-        <v>60.714285714285708</v>
+        <f>(C42/(1-E42/100)+5*D42)/10</f>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C43">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="E43">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="1"/>
-        <v>61.153846153846153</v>
+        <f>(C43/(1-E43/100)+5*D43)/10</f>
+        <v>1150</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C44">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="1"/>
-        <v>61.153846153846153</v>
+        <f>(C44/(1-E44/100)+5*D44)/10</f>
+        <v>6.0204081632653059</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C45">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D45">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E45">
         <v>10</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="1"/>
-        <v>62.222222222222214</v>
+        <f>(C45/(1-E45/100)+5*D45)/10</f>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="C46">
-        <v>300</v>
+        <v>6000</v>
       </c>
       <c r="D46">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="1"/>
-        <v>63.333333333333329</v>
+        <f>(C46/(1-E46/100)+5*D46)/10</f>
+        <v>2399.9999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C47">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="D47">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="1"/>
-        <v>63.888888888888893</v>
+        <f>(C47/(1-E47/100)+5*D47)/10</f>
+        <v>31.666666666666668</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C48">
-        <v>350</v>
+        <v>3500</v>
       </c>
       <c r="D48">
+        <v>150</v>
+      </c>
+      <c r="E48">
         <v>70</v>
       </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
       <c r="F48" s="1">
-        <f t="shared" si="1"/>
-        <v>70.353535353535364</v>
+        <f>(C48/(1-E48/100)+5*D48)/10</f>
+        <v>1241.6666666666665</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C49">
         <v>200</v>
       </c>
       <c r="D49">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E49">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="1"/>
-        <v>73.529411764705884</v>
+        <f>(C49/(1-E49/100)+5*D49)/10</f>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C50">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="D50">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E50">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="1"/>
-        <v>74.444444444444443</v>
+        <f>(C50/(1-E50/100)+5*D50)/10</f>
+        <v>433.33333333333337</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C51">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="D51">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="1"/>
-        <v>81.25</v>
+        <f>(C51/(1-E51/100)+5*D51)/10</f>
+        <v>29.285714285714288</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C52">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="D52">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="1"/>
-        <v>83.333333333333329</v>
+        <f>(C52/(1-E52/100)+5*D52)/10</f>
+        <v>1783.3333333333333</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C53">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D53">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>10</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="1"/>
-        <v>83.333333333333329</v>
+        <f>(C53/(1-E53/100)+5*D53)/10</f>
+        <v>62.222222222222214</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C54">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="D54">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="1"/>
-        <v>83.333333333333329</v>
+        <f>(C54/(1-E54/100)+5*D54)/10</f>
+        <v>814.28571428571433</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C55">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E55">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="1"/>
-        <v>87.5</v>
+        <f>(C55/(1-E55/100)+5*D55)/10</f>
+        <v>200.00000000000006</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C56">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="D56">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="1"/>
-        <v>92.10526315789474</v>
+        <f>(C56/(1-E56/100)+5*D56)/10</f>
+        <v>2791.6666666666665</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C57">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D57">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="E57">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="1"/>
-        <v>93.333333333333343</v>
+        <f>(C57/(1-E57/100)+5*D57)/10</f>
+        <v>106.57894736842104</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C58">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="D58">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="E58">
         <v>15</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="1"/>
-        <v>93.82352941176471</v>
+        <f>(C58/(1-E58/100)+5*D58)/10</f>
+        <v>852.94117647058829</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C59">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="D59">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="1"/>
-        <v>98.684210526315795</v>
+        <f>(C59/(1-E59/100)+5*D59)/10</f>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C60">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="D60">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="E60">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>(C60/(1-E60/100)+5*D60)/10</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C61">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="D61">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="1"/>
-        <v>105.55555555555557</v>
+        <f>(C61/(1-E61/100)+5*D61)/10</f>
+        <v>3.0101010101010099</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C62">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D62">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="1"/>
-        <v>106.57894736842104</v>
+        <f>(C62/(1-E62/100)+5*D62)/10</f>
+        <v>63.888888888888893</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C63">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="D63">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="E63">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="1"/>
-        <v>144.11764705882354</v>
+        <f>(C63/(1-E63/100)+5*D63)/10</f>
+        <v>1950</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C64">
-        <v>850</v>
+        <v>100</v>
       </c>
       <c r="D64">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E64">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="1"/>
-        <v>146.25</v>
+        <f>(C64/(1-E64/100)+5*D64)/10</f>
+        <v>18.611111111111111</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C65">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D65">
         <v>100</v>
       </c>
       <c r="E65">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f>(C65/(1-E65/100)+5*D65)/10</f>
+        <v>316.66666666666663</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C66">
-        <v>600</v>
+        <v>10000</v>
       </c>
       <c r="D66">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E66">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" ref="F66:F97" si="2">(C66/(1-E66/100)+5*D66)/10</f>
-        <v>200</v>
+        <f>(C66/(1-E66/100)+5*D66)/10</f>
+        <v>2400</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C67">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="D67">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E67">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="2"/>
-        <v>200.00000000000006</v>
+        <f>(C67/(1-E67/100)+5*D67)/10</f>
+        <v>31.666666666666664</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C68">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D68">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E68">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="2"/>
-        <v>216.66666666666669</v>
+        <f>(C68/(1-E68/100)+5*D68)/10</f>
+        <v>452.94117647058829</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C69">
-        <v>300</v>
+        <v>7000</v>
       </c>
       <c r="D69">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E69">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="2"/>
-        <v>287.5</v>
+        <f>(C69/(1-E69/100)+5*D69)/10</f>
+        <v>1750</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C70">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="D70">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <f>(C70/(1-E70/100)+5*D70)/10</f>
+        <v>12.216494845360824</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C71">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="D71">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E71">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="2"/>
-        <v>316.66666666666663</v>
+        <f>(C71/(1-E71/100)+5*D71)/10</f>
+        <v>98.684210526315795</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C72">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="D72">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E72">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="2"/>
-        <v>350</v>
+        <f>(C72/(1-E72/100)+5*D72)/10</f>
+        <v>1223.5294117647059</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="C73">
         <v>300</v>
       </c>
       <c r="D73">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="E73">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="2"/>
-        <v>396.15384615384613</v>
+        <f>(C73/(1-E73/100)+5*D73)/10</f>
+        <v>87.5</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C74">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="D74">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="E74">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="2"/>
-        <v>408.33333333333331</v>
+        <f>(C74/(1-E74/100)+5*D74)/10</f>
+        <v>1333.3333333333335</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C75">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D75">
-        <v>350</v>
+        <v>35</v>
       </c>
       <c r="E75">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="2"/>
-        <v>425</v>
+        <f>(C75/(1-E75/100)+5*D75)/10</f>
+        <v>29.264705882352938</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C76">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D76">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E76">
         <v>40</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="2"/>
-        <v>433.33333333333337</v>
+        <f>(C76/(1-E76/100)+5*D76)/10</f>
+        <v>566.66666666666674</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C77">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D77">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="E77">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="2"/>
-        <v>452.94117647058829</v>
+        <f>(C77/(1-E77/100)+5*D77)/10</f>
+        <v>3750.0000000000009</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="C78">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="D78">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E78">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="2"/>
-        <v>516.66666666666663</v>
+        <f>(C78/(1-E78/100)+5*D78)/10</f>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C79">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="D79">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E79">
         <v>20</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="2"/>
-        <v>562.5</v>
+        <f>(C79/(1-E79/100)+5*D79)/10</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C80">
-        <v>2500</v>
+        <v>350</v>
       </c>
       <c r="D80">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="E80">
         <v>40</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="2"/>
-        <v>566.66666666666674</v>
+        <f>(C80/(1-E80/100)+5*D80)/10</f>
+        <v>93.333333333333343</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C81">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D81">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E81">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="2"/>
-        <v>675</v>
+        <f>(C81/(1-E81/100)+5*D81)/10</f>
+        <v>2650.0000000000009</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C82">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="D82">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="E82">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="2"/>
-        <v>700</v>
+        <f>(C82/(1-E82/100)+5*D82)/10</f>
+        <v>27.5</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C83">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="D83">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E83">
         <v>50</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="2"/>
-        <v>725</v>
+        <f>(C83/(1-E83/100)+5*D83)/10</f>
+        <v>1250</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="C84">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="D84">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="E84">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="2"/>
-        <v>733.33333333333326</v>
+        <f>(C84/(1-E84/100)+5*D84)/10</f>
+        <v>58.333333333333329</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C85">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D85">
-        <v>700</v>
+        <v>40</v>
       </c>
       <c r="E85">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="2"/>
-        <v>750</v>
+        <f>(C85/(1-E85/100)+5*D85)/10</f>
+        <v>41.05263157894737</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C86">
         <v>3000</v>
       </c>
       <c r="D86">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E86">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="2"/>
-        <v>750</v>
+        <f>(C86/(1-E86/100)+5*D86)/10</f>
+        <v>828.57142857142867</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C87">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D87">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E87">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="2"/>
-        <v>750</v>
+        <f>(C87/(1-E87/100)+5*D87)/10</f>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C88">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="D88">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E88">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="2"/>
-        <v>766.66666666666674</v>
+        <f>(C88/(1-E88/100)+5*D88)/10</f>
+        <v>1250</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="C89">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="D89">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="E89">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="2"/>
-        <v>775</v>
+        <f>(C89/(1-E89/100)+5*D89)/10</f>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="C90">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D90">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E90">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="2"/>
-        <v>785.71428571428567</v>
+        <f>(C90/(1-E90/100)+5*D90)/10</f>
+        <v>1250</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C91">
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="D91">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E91">
         <v>30</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="2"/>
-        <v>814.28571428571433</v>
+        <f>(C91/(1-E91/100)+5*D91)/10</f>
+        <v>31.428571428571434</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C92">
         <v>3000</v>
       </c>
       <c r="D92">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="E92">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="2"/>
-        <v>828.57142857142867</v>
+        <f>(C92/(1-E92/100)+5*D92)/10</f>
+        <v>725</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C93">
-        <v>3500</v>
+        <v>100</v>
       </c>
       <c r="D93">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="E93">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="2"/>
-        <v>833.33333333333337</v>
+        <f>(C93/(1-E93/100)+5*D93)/10</f>
+        <v>32.5</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C94">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="D94">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E94">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="2"/>
-        <v>850</v>
+        <f>(C94/(1-E94/100)+5*D94)/10</f>
+        <v>350</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C95">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="D95">
         <v>1000</v>
       </c>
       <c r="E95">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="2"/>
-        <v>852.94117647058829</v>
+        <f>(C95/(1-E95/100)+5*D95)/10</f>
+        <v>3833.333333333333</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C96">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="D96">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E96">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="2"/>
-        <v>871.42857142857133</v>
+        <f>(C96/(1-E96/100)+5*D96)/10</f>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="C97">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="D97">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E97">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="2"/>
-        <v>875</v>
+        <f>(C97/(1-E97/100)+5*D97)/10</f>
+        <v>29.166666666666668</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C98">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="D98">
         <v>200</v>
       </c>
       <c r="E98">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" ref="F98:F129" si="3">(C98/(1-E98/100)+5*D98)/10</f>
-        <v>900</v>
+        <f>(C98/(1-E98/100)+5*D98)/10</f>
+        <v>766.66666666666674</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C99">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D99">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E99">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="3"/>
-        <v>916.66666666666663</v>
+        <f>(C99/(1-E99/100)+5*D99)/10</f>
+        <v>27.5</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C100">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D100">
         <v>500</v>
       </c>
       <c r="E100">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="3"/>
+        <f>(C100/(1-E100/100)+5*D100)/10</f>
         <v>916.66666666666674</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C101">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="D101">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E101">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" si="3"/>
-        <v>916.66666666666674</v>
+        <f>(C101/(1-E101/100)+5*D101)/10</f>
+        <v>61.153846153846153</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C102">
         <v>3000</v>
       </c>
       <c r="D102">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E102">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="3"/>
-        <v>925</v>
+        <f>(C102/(1-E102/100)+5*D102)/10</f>
+        <v>750</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C103">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="D103">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E103">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" si="3"/>
-        <v>928.57142857142867</v>
+        <f>(C103/(1-E103/100)+5*D103)/10</f>
+        <v>60.294117647058826</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="C104">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="D104">
         <v>350</v>
       </c>
       <c r="E104">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" si="3"/>
-        <v>944.23076923076917</v>
+        <f>(C104/(1-E104/100)+5*D104)/10</f>
+        <v>925</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C105">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="D105">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E105">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="3"/>
-        <v>1000</v>
+        <f>(C105/(1-E105/100)+5*D105)/10</f>
+        <v>73.529411764705884</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C106">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="D106">
         <v>1000</v>
       </c>
       <c r="E106">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="3"/>
-        <v>1000</v>
+        <f>(C106/(1-E106/100)+5*D106)/10</f>
+        <v>928.57142857142867</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C107">
         <v>4000</v>
       </c>
       <c r="D107">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E107">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="3"/>
-        <v>1000</v>
+        <f>(C107/(1-E107/100)+5*D107)/10</f>
+        <v>900</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C108">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="D108">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="E108">
         <v>40</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="3"/>
-        <v>1008.3333333333334</v>
+        <f>(C108/(1-E108/100)+5*D108)/10</f>
+        <v>833.33333333333337</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C109">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D109">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="E109">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F109" s="1">
-        <f t="shared" si="3"/>
-        <v>1025</v>
+        <f>(C109/(1-E109/100)+5*D109)/10</f>
+        <v>675</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C110">
-        <v>4500</v>
+        <v>100</v>
       </c>
       <c r="D110">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E110">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" si="3"/>
-        <v>1068.181818181818</v>
+        <f>(C110/(1-E110/100)+5*D110)/10</f>
+        <v>26.111111111111107</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C111">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="D111">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E111">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F111" s="1">
-        <f t="shared" si="3"/>
-        <v>1099.9999999999998</v>
+        <f>(C111/(1-E111/100)+5*D111)/10</f>
+        <v>562.5</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C112">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="D112">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E112">
         <v>60</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" si="3"/>
-        <v>1150</v>
+        <f>(C112/(1-E112/100)+5*D112)/10</f>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="C113">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="D113">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E113">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" si="3"/>
-        <v>1169.2307692307691</v>
+        <f>(C113/(1-E113/100)+5*D113)/10</f>
+        <v>6500.0000000000018</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C114">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D114">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="E114">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" si="3"/>
-        <v>1200</v>
+        <f>(C114/(1-E114/100)+5*D114)/10</f>
+        <v>425</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C115">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="D115">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E115">
         <v>30</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" si="3"/>
-        <v>1214.2857142857142</v>
+        <f>(C115/(1-E115/100)+5*D115)/10</f>
+        <v>60.714285714285708</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="C116">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="D116">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E116">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="3"/>
-        <v>1223.5294117647059</v>
+        <f>(C116/(1-E116/100)+5*D116)/10</f>
+        <v>871.42857142857133</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C117">
-        <v>3500</v>
+        <v>100</v>
       </c>
       <c r="D117">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E117">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" si="3"/>
-        <v>1241.6666666666665</v>
+        <f>(C117/(1-E117/100)+5*D117)/10</f>
+        <v>22.5</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C118">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D118">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E118">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" si="3"/>
-        <v>1250</v>
+        <f>(C118/(1-E118/100)+5*D118)/10</f>
+        <v>1214.2857142857142</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C119">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="D119">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="E119">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" si="3"/>
-        <v>1250</v>
+        <f>(C119/(1-E119/100)+5*D119)/10</f>
+        <v>4.5408163265306118</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C120">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="D120">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="E120">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" si="3"/>
-        <v>1250</v>
+        <f>(C120/(1-E120/100)+5*D120)/10</f>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="C121">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="D121">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="E121">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F121" s="1">
-        <f t="shared" si="3"/>
-        <v>1333.3333333333335</v>
+        <f>(C121/(1-E121/100)+5*D121)/10</f>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="C122">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D122">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E122">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F122" s="1">
-        <f t="shared" si="3"/>
-        <v>1383.3333333333333</v>
+        <f>(C122/(1-E122/100)+5*D122)/10</f>
+        <v>916.66666666666674</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="C123">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D123">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E123">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="F123" s="1">
-        <f t="shared" si="3"/>
-        <v>1433.3333333333333</v>
+        <f>(C123/(1-E123/100)+5*D123)/10</f>
+        <v>408.33333333333331</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C124">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="D124">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E124">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F124" s="1">
-        <f t="shared" si="3"/>
-        <v>1450</v>
+        <f>(C124/(1-E124/100)+5*D124)/10</f>
+        <v>785.71428571428567</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C125">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="D125">
         <v>500</v>
       </c>
       <c r="E125">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F125" s="1">
-        <f t="shared" si="3"/>
-        <v>1500</v>
+        <f>(C125/(1-E125/100)+5*D125)/10</f>
+        <v>916.66666666666663</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C126">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="D126">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E126">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F126" s="1">
-        <f t="shared" si="3"/>
-        <v>1500</v>
+        <f>(C126/(1-E126/100)+5*D126)/10</f>
+        <v>850</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C127">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="D127">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="E127">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F127" s="1">
-        <f t="shared" si="3"/>
-        <v>1750</v>
+        <f>(C127/(1-E127/100)+5*D127)/10</f>
+        <v>750</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="C128">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="D128">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E128">
         <v>70</v>
       </c>
       <c r="F128" s="1">
-        <f t="shared" si="3"/>
-        <v>1783.3333333333333</v>
+        <f>(C128/(1-E128/100)+5*D128)/10</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="C129">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="D129">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="E129">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F129" s="1">
-        <f t="shared" si="3"/>
-        <v>1792.8571428571427</v>
+        <f>(C129/(1-E129/100)+5*D129)/10</f>
+        <v>700</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C130">
-        <v>3500</v>
+        <v>20</v>
       </c>
       <c r="D130">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="E130">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F130" s="1">
-        <f t="shared" ref="F130:F161" si="4">(C130/(1-E130/100)+5*D130)/10</f>
-        <v>1810.0000000000005</v>
+        <f>(C130/(1-E130/100)+5*D130)/10</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C131">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="D131">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E131">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F131" s="1">
-        <f t="shared" si="4"/>
-        <v>1850</v>
+        <f>(C131/(1-E131/100)+5*D131)/10</f>
+        <v>2500</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C132">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D132">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E132">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F132" s="1">
-        <f t="shared" si="4"/>
-        <v>1928.5714285714287</v>
+        <f>(C132/(1-E132/100)+5*D132)/10</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="C133">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="D133">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E133">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F133" s="1">
-        <f t="shared" si="4"/>
-        <v>1950</v>
+        <f>(C133/(1-E133/100)+5*D133)/10</f>
+        <v>2000.0000000000005</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C134">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="D134">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E134">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="F134" s="1">
-        <f t="shared" si="4"/>
-        <v>2000.0000000000005</v>
+        <f>(C134/(1-E134/100)+5*D134)/10</f>
+        <v>8.1578947368421062</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="C135">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D135">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E135">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F135" s="1">
-        <f t="shared" si="4"/>
-        <v>2399.9999999999995</v>
+        <f>(C135/(1-E135/100)+5*D135)/10</f>
+        <v>1200</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="C136">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="D136">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E136">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F136" s="1">
-        <f t="shared" si="4"/>
-        <v>2400</v>
+        <f>(C136/(1-E136/100)+5*D136)/10</f>
+        <v>1068.181818181818</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C137">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="D137">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="E137">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F137" s="1">
-        <f t="shared" si="4"/>
-        <v>2500</v>
+        <f>(C137/(1-E137/100)+5*D137)/10</f>
+        <v>1025</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C138">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D138">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="E138">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F138" s="1">
-        <f t="shared" si="4"/>
-        <v>2650</v>
+        <f>(C138/(1-E138/100)+5*D138)/10</f>
+        <v>875</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C139">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="D139">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="E139">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="F139" s="1">
-        <f t="shared" si="4"/>
-        <v>2650.0000000000009</v>
+        <f>(C139/(1-E139/100)+5*D139)/10</f>
+        <v>20.526315789473685</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="C140">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D140">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="E140">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F140" s="1">
-        <f t="shared" si="4"/>
-        <v>2791.6666666666665</v>
+        <f>(C140/(1-E140/100)+5*D140)/10</f>
+        <v>1008.3333333333334</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="C141">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="D141">
-        <v>1500</v>
+        <v>120</v>
       </c>
       <c r="E141">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F141" s="1">
-        <f t="shared" si="4"/>
-        <v>3083.333333333333</v>
+        <f>(C141/(1-E141/100)+5*D141)/10</f>
+        <v>1810.0000000000005</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="C142">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="D142">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E142">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F142" s="1">
-        <f t="shared" si="4"/>
-        <v>3550</v>
+        <f>(C142/(1-E142/100)+5*D142)/10</f>
+        <v>516.66666666666663</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="C143">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="D143">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="E143">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F143" s="1">
-        <f t="shared" si="4"/>
-        <v>3750.0000000000009</v>
+        <f>(C143/(1-E143/100)+5*D143)/10</f>
+        <v>1850</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="C144">
         <v>10000</v>
       </c>
       <c r="D144">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E144">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F144" s="1">
-        <f t="shared" si="4"/>
-        <v>3833.333333333333</v>
+        <f>(C144/(1-E144/100)+5*D144)/10</f>
+        <v>10250.000000000004</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C145">
         <v>10000</v>
       </c>
       <c r="D145">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E145">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F145" s="1">
-        <f t="shared" si="4"/>
-        <v>4600</v>
+        <f>(C145/(1-E145/100)+5*D145)/10</f>
+        <v>7166.6666666666661</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
@@ -3951,58 +3993,58 @@
         <v>80</v>
       </c>
       <c r="F146" s="1">
-        <f t="shared" si="4"/>
+        <f>(C146/(1-E146/100)+5*D146)/10</f>
         <v>5550.0000000000018</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="C147">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="D147">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E147">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F147" s="1">
-        <f t="shared" si="4"/>
-        <v>6349.9999999999991</v>
+        <f>(C147/(1-E147/100)+5*D147)/10</f>
+        <v>4600</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="C148">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D148">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E148">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="F148" s="1">
-        <f t="shared" si="4"/>
-        <v>6500.0000000000018</v>
+        <f>(C148/(1-E148/100)+5*D148)/10</f>
+        <v>775</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C149">
         <v>10000</v>
@@ -4011,53 +4053,53 @@
         <v>1000</v>
       </c>
       <c r="E149">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="F149" s="1">
-        <f t="shared" si="4"/>
-        <v>7166.6666666666661</v>
+        <f>(C149/(1-E149/100)+5*D149)/10</f>
+        <v>1928.5714285714287</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
         <v>150</v>
       </c>
-      <c r="B150" t="s">
-        <v>151</v>
-      </c>
       <c r="C150">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D150">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="E150">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F150" s="1">
-        <f t="shared" si="4"/>
-        <v>7666.6666666666661</v>
+        <f>(C150/(1-E150/100)+5*D150)/10</f>
+        <v>2650</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C151">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D151">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="E151">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F151" s="1">
-        <f t="shared" si="4"/>
-        <v>10250.000000000004</v>
+        <f>(C151/(1-E151/100)+5*D151)/10</f>
+        <v>7666.6666666666661</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
@@ -4077,28 +4119,28 @@
         <v>95</v>
       </c>
       <c r="F152" s="1">
-        <f t="shared" si="4"/>
+        <f>(C152/(1-E152/100)+5*D152)/10</f>
         <v>20499.999999999982</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F152">
+  <autoFilter ref="A1:F152" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:F152">
-      <sortCondition ref="F1:F152"/>
+      <sortCondition ref="A1:A152"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
